--- a/Data/Draft/ketqua.xlsx
+++ b/Data/Draft/ketqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,12 +487,4083 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/congdongvnexpress/posts/919258186902860?ref=embed_post</t>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c22",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c26",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c29",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c44",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c47",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c60",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c62",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c63",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c65",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c71",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c74",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c76",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c79",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c93",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c96",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c113",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c116",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c119",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c124",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c125",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c22",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c26",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c29",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c44",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c47",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c60",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c62",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c63",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c65",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c71",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c74",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c76",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c79",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c93",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c96",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c113",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c116",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c119",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c124",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c125",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c22",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c26",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c29",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c44",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c47",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c60",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c62",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c63",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c65",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c71",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c74",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c76",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c79",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c93",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c96",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c113",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c116",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c119",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c124",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c125",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c22",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c26",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c29",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c44",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c47",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c60",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c62",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c63",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c65",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c71",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c74",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c76",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c79",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c93",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c96",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c113",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c116",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c119",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c124",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c125",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Tiger Đà Thành",
+        "content": "Mua gió ra đường làm gì vậy ko bik"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Anh Lê",
+        "content": "Ở nha thôi. K có việc gi đi ra đường lam gi. Nammoadidaphat"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c22",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c26",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c29",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Lão Đại",
+        "content": "đừng ra ngoài mà"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c44",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c47",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c60",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c62",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c63",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c65",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c71",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c74",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c76",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c79",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c93",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c96",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c113",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c116",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Mung Le",
+        "content": "Khổ thế"
+    },
+    {
+        "comment_id": "c119",
+        "author": "Trương Huấn",
+        "content": "Gần nhà bạn không Triệu Thị Huyên"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Nguyen Hong Phuc",
+        "content": "Mận Mận Gia Lộc!!!"
+    },
+    {
+        "comment_id": "c121",
+        "author": "Hue Nguyen Thi",
+        "content": "Adiđaphât"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Vũ Khôi Phong",
+        "content": "Đỗ Thị Quỳnh Trang SỢ QUÁ EM ƠI"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c124",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c125",
+        "author": "Tran Hạ",
+        "content": "... thì"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Mac Ky Duyen",
+        "content": "Vũ Phát"
+    },
+    {
+        "comment_id": "c127",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c128",
+        "author": "NT Thu Hằng",
+        "content": "Huyen Thu"
+    },
+    {
+        "comment_id": "c129",
+        "author": "Phong Bụi",
+        "content": "Thông Thông"
+    },
+    {
+        "comment_id": "c130",
+        "author": "Nguyễn Hà",
+        "content": "Vũ Lan Anh"
+    },
+    {
+        "comment_id": "c131",
+        "author": "Thùy Liên",
+        "content": "Nguyễn Trang Nhung"
+    },
+    {
+        "comment_id": "c132",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c133",
+        "author": "Trương Ngọc Huyền Trân",
+        "content": "Trinh Truong"
+    },
+    {
+        "comment_id": "c134",
+        "author": "Vũ Thị Huyền",
+        "content": "Minh Huế"
+    },
+    {
+        "comment_id": "c135",
+        "author": "Leng Keng",
+        "content": "Ngọc NõnQuỳnh HươngNguyễn Thị ĐiệpCảnh ThảoLục Minh Thông"
+    },
+    {
+        "comment_id": "c136",
+        "author": "Ái Phương",
+        "content": "Huong Nguyen"
+    },
+    {
+        "comment_id": "c138",
+        "author": "Thạch Nghêu Sở",
+        "content": "Đại Thịnh Vượng"
+    },
+    {
+        "comment_id": "c139",
+        "author": "Nguyễn Liên",
+        "content": "Hanh Han Nguyen"
+    },
+    {
+        "comment_id": "c140",
+        "author": "Nàng Thơ",
+        "content": "Taxigiadinh Nguyendinhtuan"
+    },
+    {
+        "comment_id": "c141",
+        "author": "Lê Thùy Dương",
+        "content": "Bích Nguyệt"
+    },
+    {
+        "comment_id": "c142",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c143",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c144",
+        "author": "Trung Sơn",
+        "content": "Mưa bão ra đg mà ăn lốn màu ak đkm"
+    },
+    {
+        "comment_id": "c146",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c147",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c148",
+        "author": "Le Nhat",
+        "content": "Chúc VnExpress.net luôn vui vẻ - hạnh phúc\nVnExpress.net ủng hộ 1 lượt đăng ký cũng như chia sẻ video nhé\nht… Xem thêm"
+    },
+    {
+        "comment_id": "c149",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c150",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c151",
+        "author": "Nguyễn Mơ",
+        "content": "Giang Káy"
+    },
+    {
+        "comment_id": "c152",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Một người tử vong ở Hải Dương do cây đổ
+#VnExpress #cmt</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/congdongvnexpress/posts/919171090244903?ref=embed_post</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[
+    {
+        "comment_id": "c4",
+        "author": "VnExpress.net",
+        "content": "Khoảng 8h30, xe máy chở hai người đang lưu thông trên đường 392, thôn Đỗ Xuyên, xã Quang Minh (hướng Thanh Miện đi Gia Lộc) thì bị cây ven đường đổ đè vào xe. Hậu quả, một người đàn ông 53 tuổi trú Quỳnh Phụ, Thái Bình tử vong."
+    },
+    {
+        "comment_id": "c5",
+        "author": "Binh Le",
+        "content": "Hôm qua Hà Nội, hôm nay lại Hải Dương"
+    },
+    {
+        "comment_id": "c6",
+        "author": "Hương Ly",
+        "content": "Ôi Hải Dương quê tôi, cầu mong bình an đừng ai bị sao nữa nha"
+    },
+    {
+        "comment_id": "c7",
+        "author": "Tran Hang",
+        "content": "hải dương quê tôi"
+    },
+    {
+        "comment_id": "c8",
+        "author": "Đoàn Hương",
+        "content": "Buồn quá 1 người ở Quỳnh Phụ quê mình."
+    },
+    {
+        "comment_id": "c9",
+        "author": "Hoi Tran",
+        "content": "Buồn quá, mọi ng ở trong nhà thôi. Nam mô a di đà Phật."
+    },
+    {
+        "comment_id": "c10",
+        "author": "Nguyễn Công-Hust",
+        "content": "Nhiều công ty không cho người lao động nghỉ"
+    },
+    {
+        "comment_id": "c11",
+        "author": "Nguyễn Nụ",
+        "content": "Nam mô A di đà Phật"
+    },
+    {
+        "comment_id": "c12",
+        "author": "Mai Phạm Liên",
+        "content": "Sợ quá nhỉ cây to có lẽ nên bỏ chẳng giữ làm gì trông cây bàng lá nhỏ thôi"
+    },
+    {
+        "comment_id": "c13",
+        "author": "Tiger Đà Thành",
+        "content": "Mua gió ra đường làm gì vậy ko bik"
+    },
+    {
+        "comment_id": "c14",
+        "author": "Nga Vu",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c15",
+        "author": "Ngan Bui Thieu",
+        "content": "Nam Mô A Di Đà Phật!"
+    },
+    {
+        "comment_id": "c16",
+        "author": "Trịnh Thị Thu Thủy",
+        "content": "Khổ thân"
+    },
+    {
+        "comment_id": "c17",
+        "author": "Anh Lê",
+        "content": "Ở nha thôi. K có việc gi đi ra đường lam gi. Nammoadidaphat"
+    },
+    {
+        "comment_id": "c18",
+        "author": "Song Bui",
+        "content": "Cầu mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c19",
+        "author": "Nguyen Thi Thu Ly",
+        "content": "Nam Mô A Di Đà Phật !"
+    },
+    {
+        "comment_id": "c20",
+        "author": "Hoàn Phi",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c21",
+        "author": "Nguyễn Liên",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c22",
+        "author": "Nguyễn Thảo",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c23",
+        "author": "Lan Phương",
+        "content": "Nam mô a di đà Phật.mọi người cố gắng hạn chế ra ngoài.nốt hôm nay đi."
+    },
+    {
+        "comment_id": "c24",
+        "author": "Tran Hang",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c25",
+        "author": "Huỳnh Diễm Trang",
+        "content": "Xin bão đến nhẹ nhàng. Tưới mát cho cây cỏ."
+    },
+    {
+        "comment_id": "c26",
+        "author": "Mai Bùi Tuyết",
+        "content": "Nam mô adi đà phật"
+    },
+    {
+        "comment_id": "c27",
+        "author": "Trần Thoa",
+        "content": "Bảo gió đừng ai ra ngoài có công điện khẩn rồi mà"
+    },
+    {
+        "comment_id": "c28",
+        "author": "Lê Thị Phượng",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c29",
+        "author": "An Tình",
+        "content": "Trời ạ đã thông báo như thế vẫn đi"
+    },
+    {
+        "comment_id": "c30",
+        "author": "Lão Đại",
+        "content": "đừng ra ngoài mà"
+    },
+    {
+        "comment_id": "c31",
+        "author": "Hoa Đào",
+        "content": "Nam mô a di đà phât,cầu xin trời phật ,che chở cho moi người moi nhà đc bình an,bão tố sớm qua đi nhe nhàng,"
+    },
+    {
+        "comment_id": "c32",
+        "author": "Ngọc Hân",
+        "content": "Thương quá !"
+    },
+    {
+        "comment_id": "c33",
+        "author": "Nguyễn Vân Anh",
+        "content": "Mong mọi người được bình an"
+    },
+    {
+        "comment_id": "c34",
+        "author": "Minhsang Tran",
+        "content": "Thương quá VN ơi cố lên nha Hà Nội yêu thương"
+    },
+    {
+        "comment_id": "c35",
+        "author": "Phạm Thị Phú",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c36",
+        "author": "Liên Lý Bích",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c37",
+        "author": "Trần Tính",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c38",
+        "author": "Bon Bon",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c39",
+        "author": "Nguyễn Phương",
+        "content": "Nam mô adi đà Phật"
+    },
+    {
+        "comment_id": "c40",
+        "author": "Lan Anh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c41",
+        "author": "Nguyễn Thị Chi",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c42",
+        "author": "Xuân Thủy",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c43",
+        "author": "Nguyễn Thị Hòa",
+        "content": "A di đà phật cầu mong bão tan mọi Người dân được bình yên"
+    },
+    {
+        "comment_id": "c44",
+        "author": "Dang Hoang",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c45",
+        "author": "Loan Nguyen Thi Huyen",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c46",
+        "author": "Oanh Quach",
+        "content": "Nam Mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c47",
+        "author": "Trần Đình Thực",
+        "content": "Nam mô A di ĐÀ Phật !"
+    },
+    {
+        "comment_id": "c48",
+        "author": "Lan Tran",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c49",
+        "author": "Hằng Nguyễn",
+        "content": "Đúng năm tuổi"
+    },
+    {
+        "comment_id": "c50",
+        "author": "Nguyễn Nhiên",
+        "content": "Hết HN giờ lại Hải Dương"
+    },
+    {
+        "comment_id": "c51",
+        "author": "Hue Nguyen",
+        "content": "Là Hải Dương hay Thái Bình"
+    },
+    {
+        "comment_id": "c52",
+        "author": "Cao Lieu",
+        "content": "Nam mo a di đà phật"
+    },
+    {
+        "comment_id": "c53",
+        "author": "Thủy Ngọc",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c54",
+        "author": "Vu Hiền",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c55",
+        "author": "Trần Vinh",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c56",
+        "author": "Tuyet Vu",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c57",
+        "author": "Hari Bui",
+        "content": "Khổ quá, mn cố gắng hạn chế ra đường để đảm bảo an toàn"
+    },
+    {
+        "comment_id": "c58",
+        "author": "Chuyen Nguyen",
+        "content": "Bão gió nguy hiểm quá\nMn ở nhà cho lành nhé\nNam mô a di đà phật"
+    },
+    {
+        "comment_id": "c59",
+        "author": "Ngô Hồng The",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c60",
+        "author": "Minh Hoàng",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c61",
+        "author": "Nguyễn Hữu Đạt",
+        "content": "Thấy toàn cây đổ gây chết người"
+    },
+    {
+        "comment_id": "c62",
+        "author": "Nguyễn Hậu",
+        "content": "Nam mô a di đà phật."
+    },
+    {
+        "comment_id": "c63",
+        "author": "Nguyễn Hằng",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c64",
+        "author": "Thu Hai Nguyen",
+        "content": "Nam mô A Di Đà Phật."
+    },
+    {
+        "comment_id": "c65",
+        "author": "Cảnh Lê",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c66",
+        "author": "Thảo Hoàng",
+        "content": "A di đà Phật"
+    },
+    {
+        "comment_id": "c67",
+        "author": "Dong Nguyen Van",
+        "content": "A Di ĐÀ PHẬT!"
+    },
+    {
+        "comment_id": "c68",
+        "author": "Xuân Thị Thân",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c69",
+        "author": "Hau Ngo",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c70",
+        "author": "Hoa Mai",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c71",
+        "author": "Phạm Hà",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c72",
+        "author": "Cuong Doan",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c73",
+        "author": "Vũ Thị Vĩnh",
+        "content": "Buồn quá khổ họ rồi."
+    },
+    {
+        "comment_id": "c74",
+        "author": "Loan Ngoc",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c75",
+        "author": "Hanh Han Nguyen",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c76",
+        "author": "Hà Trang",
+        "content": "Thương quá"
+    },
+    {
+        "comment_id": "c77",
+        "author": "Lê Hồng Minh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c78",
+        "author": "Bui Hiếu",
+        "content": "Nam mô a Di Đà Phật."
+    },
+    {
+        "comment_id": "c79",
+        "author": "Đồ Ngốc",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c80",
+        "author": "Đông Dương",
+        "content": "Nam Mô A Di Đà Phật"
+    },
+    {
+        "comment_id": "c81",
+        "author": "Dao Trinh",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c82",
+        "author": "Trịnh Sương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c83",
+        "author": "Dung Do",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c84",
+        "author": "Phan Tuyết",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c85",
+        "author": "Ngocanh Nguyen",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c86",
+        "author": "Duyên Nguyễn",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c87",
+        "author": "Hoàng Kim Viên Cát",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c88",
+        "author": "Nguyễn Văn Mạnh",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c89",
+        "author": "Lehang Nguyen",
+        "content": "Cầu trời cho ng dân Hải dương và sao đỏ trong tâm bão dc bình an"
+    },
+    {
+        "comment_id": "c90",
+        "author": "Dũng Vũ",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c91",
+        "author": "Vu Quang Nhat",
+        "content": "Nam mô a di đà phật"
+    },
+    {
+        "comment_id": "c92",
+        "author": "Phuong Le Truong",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c93",
+        "author": "Hanh Luong",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c94",
+        "author": "Nguyễn Liêm",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c95",
+        "author": "Vũ Loan",
+        "content": "Thanh phố Hồ Chí Minh. Cach đay 3 ngay đả co nguoi tu vong do cay ngả.."
+    },
+    {
+        "comment_id": "c96",
+        "author": "Thanh Hằng",
+        "content": "Lại tử vong do cây đổ. Hoạ vô đơn chí"
+    },
+    {
+        "comment_id": "c97",
+        "author": "Nga Nguyễn",
+        "content": "Nam Mô A Di Đả Phật"
+    },
+    {
+        "comment_id": "c98",
+        "author": "Nguyễn Thị Thành",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c99",
+        "author": "Nguyễn Giang",
+        "content": "Nam mô a di đà Phật"
+    },
+    {
+        "comment_id": "c100",
+        "author": "Minh Nguyen",
+        "content": "A Di Đà Phật"
+    },
+    {
+        "comment_id": "c101",
+        "author": "Phạm Ngọc Đón",
+        "content": "Bảo gió đi ra đường làm gì đã có thống báo rât cụ thể"
+    },
+    {
+        "comment_id": "c102",
+        "author": "Nguyễn Thế Thuyết",
+        "content": "A di đà phật"
+    },
+    {
+        "comment_id": "c103",
+        "author": "Nguyễn Linh",
+        "content": "Truyền thông báo cẩn thận từ hqua mà dân vẫn đi ra chỗ nguy hiểm thế"
+    },
+    {
+        "comment_id": "c104",
+        "author": "Huong Mai",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c105",
+        "author": "Nguyễn Hồng",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c106",
+        "author": "Nguyễn Văn Sang",
+        "content": "Thành kính phân ưu"
+    },
+    {
+        "comment_id": "c107",
+        "author": "Nguyễn Thị Tâm",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c108",
+        "author": "Thanh Nguyên",
+        "content": "NAM MÔ A DI ĐÀ PHẬT"
+    },
+    {
+        "comment_id": "c109",
+        "author": "Bích Tân",
+        "content": "Khổ quá"
+    },
+    {
+        "comment_id": "c110",
+        "author": "Phạm Khang",
+        "content": "Dự án cây bóng mát ven đường đã phát huy tác dụng.. khổ vì sau bão là bật gốc.phá tung đường. Rễ cây đội cả mặt đường"
+    },
+    {
+        "comment_id": "c111",
+        "author": "Nguyễn Thương",
+        "content": "Nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c112",
+        "author": "Hường Vũ",
+        "content": "Người mất ở Quỳnh Lâm chúng ta đấy"
+    },
+    {
+        "comment_id": "c113",
+        "author": "Trang Le Nguyen",
+        "content": "Hôm qua mua giông lúc thôi mà hà nội cũng 2 người ra đi,"
+    },
+    {
+        "comment_id": "c114",
+        "author": "Đĩnh Nguyễn Thị",
+        "content": "A di đà phât"
+    },
+    {
+        "comment_id": "c115",
+        "author": "Phan Xuyến",
+        "content": "Adidaphat"
+    },
+    {
+        "comment_id": "c116",
+        "author": "An Anh Avenue",
+        "content": "Ủa có nghe cảnh báo Hải Dương đâu sao có cây đổ zậy?"
+    },
+    {
+        "comment_id": "c117",
+        "author": "Phạm Uyên",
+        "content": "gió giật dã man"
+    },
+    {
+        "comment_id": "c118",
+        "author": "Mung Le",
+        "content": "Khổ thế"
+    },
+    {
+        "comment_id": "c119",
+        "author": "Trương Huấn",
+        "content": "Gần nhà bạn không Triệu Thị Huyên"
+    },
+    {
+        "comment_id": "c120",
+        "author": "Nguyen Hong Phuc",
+        "content": "Mận Mận Gia Lộc!!!"
+    },
+    {
+        "comment_id": "c121",
+        "author": "Hue Nguyen Thi",
+        "content": "Adiđaphât"
+    },
+    {
+        "comment_id": "c122",
+        "author": "Vũ Khôi Phong",
+        "content": "Đỗ Thị Quỳnh Trang SỢ QUÁ EM ƠI"
+    },
+    {
+        "comment_id": "c123",
+        "author": "Xuyen Pham",
+        "content": "Thật buồn đời người ngắn chảng tày gang âu cũng là số mệnh"
+    },
+    {
+        "comment_id": "c124",
+        "author": "Thái Nguyên",
+        "content": "Ra đường làm gì nữa hả trời"
+    },
+    {
+        "comment_id": "c125",
+        "author": "Tran Hạ",
+        "content": "... thì"
+    },
+    {
+        "comment_id": "c126",
+        "author": "Mac Ky Duyen",
+        "content": "Vũ Phát"
+    },
+    {
+        "comment_id": "c127",
+        "author": "Lâm Minh Thời",
+        "content": "49-53"
+    },
+    {
+        "comment_id": "c128",
+        "author": "NT Thu Hằng",
+        "content": "Huyen Thu"
+    },
+    {
+        "comment_id": "c129",
+        "author": "Phong Bụi",
+        "content": "Thông Thông"
+    },
+    {
+        "comment_id": "c130",
+        "author": "Nguyễn Hà",
+        "content": "Vũ Lan Anh"
+    },
+    {
+        "comment_id": "c131",
+        "author": "Thùy Liên",
+        "content": "Nguyễn Trang Nhung"
+    },
+    {
+        "comment_id": "c132",
+        "author": "Chử Hiếu",
+        "content": ":(("
+    },
+    {
+        "comment_id": "c133",
+        "author": "Trương Ngọc Huyền Trân",
+        "content": "Trinh Truong"
+    },
+    {
+        "comment_id": "c134",
+        "author": "Vũ Thị Huyền",
+        "content": "Minh Huế"
+    },
+    {
+        "comment_id": "c135",
+        "author": "Leng Keng",
+        "content": "Ngọc NõnQuỳnh HươngNguyễn Thị ĐiệpCảnh ThảoLục Minh Thông"
+    },
+    {
+        "comment_id": "c136",
+        "author": "Ái Phương",
+        "content": "Huong Nguyen"
+    },
+    {
+        "comment_id": "c138",
+        "author": "Thạch Nghêu Sở",
+        "content": "Đại Thịnh Vượng"
+    },
+    {
+        "comment_id": "c139",
+        "author": "Nguyễn Liên",
+        "content": "Hanh Han Nguyen"
+    },
+    {
+        "comment_id": "c140",
+        "author": "Nàng Thơ",
+        "content": "Taxigiadinh Nguyendinhtuan"
+    },
+    {
+        "comment_id": "c141",
+        "author": "Lê Thùy Dương",
+        "content": "Bích Nguyệt"
+    },
+    {
+        "comment_id": "c142",
+        "author": "Nguyễn Hiểu",
+        "content": "Thương quá!\nNam mô a di đà phật!"
+    },
+    {
+        "comment_id": "c143",
+        "author": "Trần Tuyết",
+        "content": "Khổ thân nam mô a Di Đà Phật"
+    },
+    {
+        "comment_id": "c144",
+        "author": "Trung Sơn",
+        "content": "Mưa bão ra đg mà ăn lốn màu ak đkm"
+    },
+    {
+        "comment_id": "c146",
+        "author": "Thọ Trần",
+        "content": "Vừa đi làm về cũng sợ đang đi cây nó đổ vào ng. Trồng nh cây thì mát thật nhưng mùa bão thì sợ thật"
+    },
+    {
+        "comment_id": "c147",
+        "author": "Quang Minh",
+        "content": "Sẽ có nhiều người chết vì thiên tai và lũ lụt trong các năm 2024,2025,2026,..."
+    },
+    {
+        "comment_id": "c148",
+        "author": "Le Nhat",
+        "content": "Chúc VnExpress.net luôn vui vẻ - hạnh phúc\nVnExpress.net ủng hộ 1 lượt đăng ký cũng như chia sẻ video nhé\nht… Xem thêm"
+    },
+    {
+        "comment_id": "c149",
+        "author": "Nhan Doan",
+        "content": "Cây đổ đè chết người thì ai chịu trách nhiệm, đa phần cây xanh ở thành phố tuy to lớn nhưng bộ rễ rất yếu, nếu ko chăm sóc được thì nên thay thế."
+    },
+    {
+        "comment_id": "c150",
+        "author": "Su Mi",
+        "content": "Mọi người đừng ra ngoài đường khi trời đang bão to vì sẽ gây ra những điều nguy hiểm cho con người và tử vong do đổ cây. Đã có nhiều người đã chết ở Hà Nội vì đổ cây gẫy cành to lớn trong khi đi xe"
+    },
+    {
+        "comment_id": "c151",
+        "author": "Nguyễn Mơ",
+        "content": "Giang Káy"
+    },
+    {
+        "comment_id": "c152",
+        "author": "Đại Lý Ắc Quy",
+        "content": "Năm nay 53 bão mà anh đi ra ngoài làm gì năm hạn mà"
+    }
+]</t>
         </is>
       </c>
     </row>
